--- a/resultados/resultadoPrueba.xlsx
+++ b/resultados/resultadoPrueba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,36 @@
           <t>comparacion</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>MSE</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Pearson</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Sperman</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -514,6 +544,614 @@
         <is>
           <t>Si</t>
         </is>
+      </c>
+      <c r="J2" t="n">
+        <v>0.09370000000000001</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0186</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.1365</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.3767</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.6967</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.4529</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>It shall be to them as a false divination in their sight, who have sworn oaths to them; but he brings iniquity to memory, that they may be taken.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>divination</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>difficult</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.51 - 0.75</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0.5880268389141909</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.638888918</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>difficult</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>0.09370000000000001</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0186</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.1365</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.3767</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.6967</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.4529</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>You have received gifts among men, yes, among the rebellious also, that Yah God might dwell there.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>gifts</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0.189692755706703</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.08928568200000001</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>0.09370000000000001</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0186</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.1365</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.3767</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.6967</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.4529</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Therefore he poured the fierceness of his anger on him, and the strength of battle; and it set him on fire all around, but he didn't know; and it burned him, but he didn't take it to heart."</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>strength</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0.189692755706703</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.166666648</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>0.09370000000000001</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0186</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.1365</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.3767</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.6967</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.4529</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>The seventh angel sounded, and great voices in heaven followed, saying, "The kingdom of the world has become the Kingdom of our Lord, and of his Christ.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>voices</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0.189692755706703</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.18421044</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>0.09370000000000001</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.0186</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.1365</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.3767</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.6967</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.4529</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>who by the mouth of your servant, David, said, 'Why do the nations rage, and the peoples plot a vain thing?</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>rage</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>difficult</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.51 - 0.75</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0.5880268389141909</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.214285633</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>0.09370000000000001</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0186</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.1365</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.3767</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.6967</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.4529</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>'You shall keep my Sabbaths, and reverence my sanctuary; I am Yahweh.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Sabbaths</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0.189692755706703</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.34375</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>0.09370000000000001</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0186</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.1365</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.3767</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.6967</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.4529</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Neither have we inheritance in the son of Jesse!</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Jesse</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0.189692755706703</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.323529285</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>0.09370000000000001</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0186</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.1365</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.3767</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.6967</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.4529</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Only the firstborn among animals, which is made a firstborn to Yahweh, no man may dedicate it; whether an ox or sheep, it is Yahweh's.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>animals</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0.189692755706703</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.222222222</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>0.09370000000000001</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0186</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.1365</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.3767</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.6967</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.4529</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Don't be desirous of his dainties, since they are deceitful food.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>dainties</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>difficult</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.51 - 0.75</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0.5880268389141909</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.638888918</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>difficult</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>0.09370000000000001</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0186</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.1365</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.3767</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.6967</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.4529</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>The floods have lifted up, Yahweh, the floods have lifted up their voice.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>voice</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0.189692755706703</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.266666692</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>0.09370000000000001</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.0186</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.1365</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.3767</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.6967</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.4529</v>
       </c>
     </row>
   </sheetData>

--- a/resultados/resultadoPrueba.xlsx
+++ b/resultados/resultadoPrueba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,22 +546,22 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>0.09370000000000001</v>
+        <v>0.1309</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0186</v>
+        <v>0.0346</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1365</v>
+        <v>0.186</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3767</v>
+        <v>-0.6842</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6967</v>
+        <v>0.5592</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4529</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="3">
@@ -605,22 +605,22 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>0.09370000000000001</v>
+        <v>0.1309</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0186</v>
+        <v>0.0346</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1365</v>
+        <v>0.186</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3767</v>
+        <v>-0.6842</v>
       </c>
       <c r="N3" t="n">
-        <v>0.6967</v>
+        <v>0.5592</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4529</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="4">
@@ -639,16 +639,16 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>very easy</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.01 - 0.25</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.189692755706703</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0.08928568200000001</v>
@@ -660,26 +660,26 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>No</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>0.09370000000000001</v>
+        <v>0.1309</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0186</v>
+        <v>0.0346</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1365</v>
+        <v>0.186</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3767</v>
+        <v>-0.6842</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6967</v>
+        <v>0.5592</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4529</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="5">
@@ -723,22 +723,22 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>0.09370000000000001</v>
+        <v>0.1309</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0186</v>
+        <v>0.0346</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1365</v>
+        <v>0.186</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3767</v>
+        <v>-0.6842</v>
       </c>
       <c r="N5" t="n">
-        <v>0.6967</v>
+        <v>0.5592</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4529</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="6">
@@ -782,22 +782,22 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>0.09370000000000001</v>
+        <v>0.1309</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0186</v>
+        <v>0.0346</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1365</v>
+        <v>0.186</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3767</v>
+        <v>-0.6842</v>
       </c>
       <c r="N6" t="n">
-        <v>0.6967</v>
+        <v>0.5592</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4529</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="7">
@@ -816,16 +816,16 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>difficult</t>
+          <t>easy</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.51 - 0.75</t>
+          <t>0.01 - 0.25</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.5880268389141909</v>
+        <v>0.189692755706703</v>
       </c>
       <c r="G7" t="n">
         <v>0.214285633</v>
@@ -837,26 +837,26 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>0.09370000000000001</v>
+        <v>0.1309</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0186</v>
+        <v>0.0346</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1365</v>
+        <v>0.186</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3767</v>
+        <v>-0.6842</v>
       </c>
       <c r="N7" t="n">
-        <v>0.6967</v>
+        <v>0.5592</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4529</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="8">
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>0.09370000000000001</v>
+        <v>0.1309</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0186</v>
+        <v>0.0346</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1365</v>
+        <v>0.186</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3767</v>
+        <v>-0.6842</v>
       </c>
       <c r="N8" t="n">
-        <v>0.6967</v>
+        <v>0.5592</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4529</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="9">
@@ -959,22 +959,22 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>0.09370000000000001</v>
+        <v>0.1309</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0186</v>
+        <v>0.0346</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1365</v>
+        <v>0.186</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3767</v>
+        <v>-0.6842</v>
       </c>
       <c r="N9" t="n">
-        <v>0.6967</v>
+        <v>0.5592</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4529</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="10">
@@ -1018,22 +1018,22 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>0.09370000000000001</v>
+        <v>0.1309</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0186</v>
+        <v>0.0346</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1365</v>
+        <v>0.186</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3767</v>
+        <v>-0.6842</v>
       </c>
       <c r="N10" t="n">
-        <v>0.6967</v>
+        <v>0.5592</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4529</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="11">
@@ -1077,22 +1077,22 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>0.09370000000000001</v>
+        <v>0.1309</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0186</v>
+        <v>0.0346</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1365</v>
+        <v>0.186</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3767</v>
+        <v>-0.6842</v>
       </c>
       <c r="N11" t="n">
-        <v>0.6967</v>
+        <v>0.5592</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4529</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="12">
@@ -1111,16 +1111,16 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>very easy</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.01 - 0.25</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.189692755706703</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0.266666692</v>
@@ -1136,22 +1136,1202 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>0.09370000000000001</v>
+        <v>0.1309</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0186</v>
+        <v>0.0346</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1365</v>
+        <v>0.186</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3767</v>
+        <v>-0.6842</v>
       </c>
       <c r="N12" t="n">
-        <v>0.6967</v>
+        <v>0.5592</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4529</v>
+        <v>0.404</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>He has walled up my way so that I can't pass, and has set darkness in my paths.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>darkness</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0.189692755706703</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.21875</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>0.1309</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.0346</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-0.6842</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.5592</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.404</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Now, behold, the hand of the Lord is on you, and you will be blind, not seeing the sun for a season!"</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>behold</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>very easy</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.234375</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>0.1309</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0346</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-0.6842</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.5592</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.404</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>But the flesh of the bull, and its skin, and its dung, you shall burn with fire outside of the camp: it is a sin offering.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>camp</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0.189692755706703</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.18421044</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>0.1309</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.0346</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.6842</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.5592</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.404</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>But if her husband altogether hold his peace at her from day to day, then he establishes all her vows, or all her bonds, which are on her: he has established them, because he held his peace at her in the day that he heard them.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>bonds</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>difficult</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.51 - 0.75</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.5880268389141909</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.214285633</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>0.1309</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.0346</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-0.6842</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.5592</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.404</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Teach me your statutes.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>statutes</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>difficult</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.51 - 0.75</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0.5880268389141909</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.3375</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>0.1309</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.0346</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-0.6842</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.5592</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.404</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>They talk about laying snares secretly.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>snares</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>difficult</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.51 - 0.75</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.5880268389141909</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>0.1309</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.0346</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.6842</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.5592</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.404</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>But he who prophesies speaks to men for their edification, exhortation, and consolation.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>exhortation</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>difficult</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0.51 - 0.75</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0.5880268389141909</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.517857157</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>difficult</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>0.1309</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.0346</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.6842</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.5592</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.404</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Then Tattenai, the governor beyond the River, Shetharbozenai, and their companions, because Darius the king had sent a decree, did accordingly with all diligence.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>River</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0.189692755706703</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.203125</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>0.1309</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.0346</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-0.6842</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.5592</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.404</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>They are a perverse and crooked generation.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>generation</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0.189692755706703</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>0.1309</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.0346</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-0.6842</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.5592</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.404</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Then let our faces be looked on before you, and the face of the youths who eat of the king's dainties; and as you see, deal with your servants.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>dainties</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>difficult</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0.51 - 0.75</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0.5880268389141909</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>difficult</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>0.1309</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.0346</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-0.6842</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.5592</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.404</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Wives, be in subjection to your husbands, as is fitting in the Lord.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>subjection</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>difficult</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0.51 - 0.75</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0.5880268389141909</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>0.1309</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.0346</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-0.6842</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.5592</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.404</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Yahweh has mixed a spirit of perverseness in the midst of her; and they have caused Egypt to go astray in all of its works, like a drunken man staggers in his vomit.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>perverseness</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>difficult</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0.51 - 0.75</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0.5880268389141909</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.416666549</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>0.1309</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.0346</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-0.6842</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.5592</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.404</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Multiply like grasshoppers.</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>grasshoppers</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0.189692755706703</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>0.1309</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.0346</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-0.6842</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.5592</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.404</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Pharaoh took off his signet ring from his hand, and put it on Joseph's hand, and arrayed him in robes of fine linen, and put a gold chain about his neck,</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>signet</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>difficult</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0.51 - 0.75</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0.5880268389141909</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>0.1309</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.0346</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-0.6842</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.5592</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.404</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>For he will deliver you from the snare of the fowler, and from the deadly pestilence.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>snare</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0.189692755706703</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.319444459</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>0.1309</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.0346</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-0.6842</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.5592</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.404</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>The sons of Asher: Imnah, Ishvah, Ishvi, Beriah, and Serah their sister.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Asher</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>very easy</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.428571265</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>0.1309</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.0346</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-0.6842</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.5592</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.404</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>They sacrificed to demons, not God, to gods that they didn't know, to new gods that came up recently, which your fathers didn't dread.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>demons</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>difficult</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0.51 - 0.75</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.5880268389141909</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>0.1309</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.0346</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-0.6842</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.5592</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.404</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>In the second year of Darius the king, in the sixth month, in the first day of the month, the Word of Yahweh came by Haggai, the prophet, to Zerubbabel, the son of Shealtiel, governor of Judah, and to Joshua, the son of Jehozadak, the high priest, saying,</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>prophet</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.189692755706703</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.22222223</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>0.1309</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.0346</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-0.6842</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.5592</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.404</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>For the waters of Dimon are full of blood; for I will bring yet more on Dimon, a lion on those of Moab who escape, and on the remnant of the land.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>lion</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>very easy</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.28125</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>0.1309</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.0346</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.6842</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.5592</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.404</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Behold, the Lion who is of the tribe of Judah, the Root of David, has overcome; he who opens the book and its seven seals."</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Lion</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.189692755706703</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.171052596</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>0.1309</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.0346</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-0.6842</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.5592</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.404</v>
       </c>
     </row>
   </sheetData>

--- a/resultados/resultadoPrueba.xlsx
+++ b/resultados/resultadoPrueba.xlsx
@@ -546,22 +546,22 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>0.1309</v>
+        <v>0.0885</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0346</v>
+        <v>0.0198</v>
       </c>
       <c r="L2" t="n">
-        <v>0.186</v>
+        <v>0.1408</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.6842</v>
+        <v>0.0352</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5592</v>
+        <v>0.6719000000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>0.404</v>
+        <v>0.5958</v>
       </c>
     </row>
     <row r="3">
@@ -589,7 +589,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.5880268389141909</v>
+        <v>0.5880268389141911</v>
       </c>
       <c r="G3" t="n">
         <v>0.638888918</v>
@@ -605,22 +605,22 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>0.1309</v>
+        <v>0.0885</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0346</v>
+        <v>0.0198</v>
       </c>
       <c r="L3" t="n">
-        <v>0.186</v>
+        <v>0.1408</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.6842</v>
+        <v>0.0352</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5592</v>
+        <v>0.6719000000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>0.404</v>
+        <v>0.5958</v>
       </c>
     </row>
     <row r="4">
@@ -639,16 +639,16 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>very easy</t>
+          <t>easy</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.01 - 0.25</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.189692755706703</v>
       </c>
       <c r="G4" t="n">
         <v>0.08928568200000001</v>
@@ -660,26 +660,26 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>0.1309</v>
+        <v>0.0885</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0346</v>
+        <v>0.0198</v>
       </c>
       <c r="L4" t="n">
-        <v>0.186</v>
+        <v>0.1408</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.6842</v>
+        <v>0.0352</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5592</v>
+        <v>0.6719000000000001</v>
       </c>
       <c r="O4" t="n">
-        <v>0.404</v>
+        <v>0.5958</v>
       </c>
     </row>
     <row r="5">
@@ -723,22 +723,22 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>0.1309</v>
+        <v>0.0885</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0346</v>
+        <v>0.0198</v>
       </c>
       <c r="L5" t="n">
-        <v>0.186</v>
+        <v>0.1408</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.6842</v>
+        <v>0.0352</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5592</v>
+        <v>0.6719000000000001</v>
       </c>
       <c r="O5" t="n">
-        <v>0.404</v>
+        <v>0.5958</v>
       </c>
     </row>
     <row r="6">
@@ -782,22 +782,22 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>0.1309</v>
+        <v>0.0885</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0346</v>
+        <v>0.0198</v>
       </c>
       <c r="L6" t="n">
-        <v>0.186</v>
+        <v>0.1408</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.6842</v>
+        <v>0.0352</v>
       </c>
       <c r="N6" t="n">
-        <v>0.5592</v>
+        <v>0.6719000000000001</v>
       </c>
       <c r="O6" t="n">
-        <v>0.404</v>
+        <v>0.5958</v>
       </c>
     </row>
     <row r="7">
@@ -841,22 +841,22 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>0.1309</v>
+        <v>0.0885</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0346</v>
+        <v>0.0198</v>
       </c>
       <c r="L7" t="n">
-        <v>0.186</v>
+        <v>0.1408</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.6842</v>
+        <v>0.0352</v>
       </c>
       <c r="N7" t="n">
-        <v>0.5592</v>
+        <v>0.6719000000000001</v>
       </c>
       <c r="O7" t="n">
-        <v>0.404</v>
+        <v>0.5958</v>
       </c>
     </row>
     <row r="8">
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>0.1309</v>
+        <v>0.0885</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0346</v>
+        <v>0.0198</v>
       </c>
       <c r="L8" t="n">
-        <v>0.186</v>
+        <v>0.1408</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.6842</v>
+        <v>0.0352</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5592</v>
+        <v>0.6719000000000001</v>
       </c>
       <c r="O8" t="n">
-        <v>0.404</v>
+        <v>0.5958</v>
       </c>
     </row>
     <row r="9">
@@ -959,22 +959,22 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>0.1309</v>
+        <v>0.0885</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0346</v>
+        <v>0.0198</v>
       </c>
       <c r="L9" t="n">
-        <v>0.186</v>
+        <v>0.1408</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.6842</v>
+        <v>0.0352</v>
       </c>
       <c r="N9" t="n">
-        <v>0.5592</v>
+        <v>0.6719000000000001</v>
       </c>
       <c r="O9" t="n">
-        <v>0.404</v>
+        <v>0.5958</v>
       </c>
     </row>
     <row r="10">
@@ -1018,22 +1018,22 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>0.1309</v>
+        <v>0.0885</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0346</v>
+        <v>0.0198</v>
       </c>
       <c r="L10" t="n">
-        <v>0.186</v>
+        <v>0.1408</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.6842</v>
+        <v>0.0352</v>
       </c>
       <c r="N10" t="n">
-        <v>0.5592</v>
+        <v>0.6719000000000001</v>
       </c>
       <c r="O10" t="n">
-        <v>0.404</v>
+        <v>0.5958</v>
       </c>
     </row>
     <row r="11">
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.5880268389141909</v>
+        <v>0.5880268389141911</v>
       </c>
       <c r="G11" t="n">
         <v>0.638888918</v>
@@ -1077,22 +1077,22 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>0.1309</v>
+        <v>0.0885</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0346</v>
+        <v>0.0198</v>
       </c>
       <c r="L11" t="n">
-        <v>0.186</v>
+        <v>0.1408</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.6842</v>
+        <v>0.0352</v>
       </c>
       <c r="N11" t="n">
-        <v>0.5592</v>
+        <v>0.6719000000000001</v>
       </c>
       <c r="O11" t="n">
-        <v>0.404</v>
+        <v>0.5958</v>
       </c>
     </row>
     <row r="12">
@@ -1111,16 +1111,16 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>very easy</t>
+          <t>easy</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.01 - 0.25</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.189692755706703</v>
       </c>
       <c r="G12" t="n">
         <v>0.266666692</v>
@@ -1136,22 +1136,22 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>0.1309</v>
+        <v>0.0885</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0346</v>
+        <v>0.0198</v>
       </c>
       <c r="L12" t="n">
-        <v>0.186</v>
+        <v>0.1408</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.6842</v>
+        <v>0.0352</v>
       </c>
       <c r="N12" t="n">
-        <v>0.5592</v>
+        <v>0.6719000000000001</v>
       </c>
       <c r="O12" t="n">
-        <v>0.404</v>
+        <v>0.5958</v>
       </c>
     </row>
     <row r="13">
@@ -1195,22 +1195,22 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>0.1309</v>
+        <v>0.0885</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0346</v>
+        <v>0.0198</v>
       </c>
       <c r="L13" t="n">
-        <v>0.186</v>
+        <v>0.1408</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.6842</v>
+        <v>0.0352</v>
       </c>
       <c r="N13" t="n">
-        <v>0.5592</v>
+        <v>0.6719000000000001</v>
       </c>
       <c r="O13" t="n">
-        <v>0.404</v>
+        <v>0.5958</v>
       </c>
     </row>
     <row r="14">
@@ -1229,16 +1229,16 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>very easy</t>
+          <t>very difficult</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.76 - 1</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.8111511532380949</v>
       </c>
       <c r="G14" t="n">
         <v>0.234375</v>
@@ -1254,22 +1254,22 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>0.1309</v>
+        <v>0.0885</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0346</v>
+        <v>0.0198</v>
       </c>
       <c r="L14" t="n">
-        <v>0.186</v>
+        <v>0.1408</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.6842</v>
+        <v>0.0352</v>
       </c>
       <c r="N14" t="n">
-        <v>0.5592</v>
+        <v>0.6719000000000001</v>
       </c>
       <c r="O14" t="n">
-        <v>0.404</v>
+        <v>0.5958</v>
       </c>
     </row>
     <row r="15">
@@ -1313,22 +1313,22 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>0.1309</v>
+        <v>0.0885</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0346</v>
+        <v>0.0198</v>
       </c>
       <c r="L15" t="n">
-        <v>0.186</v>
+        <v>0.1408</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.6842</v>
+        <v>0.0352</v>
       </c>
       <c r="N15" t="n">
-        <v>0.5592</v>
+        <v>0.6719000000000001</v>
       </c>
       <c r="O15" t="n">
-        <v>0.404</v>
+        <v>0.5958</v>
       </c>
     </row>
     <row r="16">
@@ -1347,16 +1347,16 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>difficult</t>
+          <t>easy</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.51 - 0.75</t>
+          <t>0.01 - 0.25</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.5880268389141909</v>
+        <v>0.189692755706703</v>
       </c>
       <c r="G16" t="n">
         <v>0.214285633</v>
@@ -1368,26 +1368,26 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>0.1309</v>
+        <v>0.0885</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0346</v>
+        <v>0.0198</v>
       </c>
       <c r="L16" t="n">
-        <v>0.186</v>
+        <v>0.1408</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.6842</v>
+        <v>0.0352</v>
       </c>
       <c r="N16" t="n">
-        <v>0.5592</v>
+        <v>0.6719000000000001</v>
       </c>
       <c r="O16" t="n">
-        <v>0.404</v>
+        <v>0.5958</v>
       </c>
     </row>
     <row r="17">
@@ -1406,16 +1406,16 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>difficult</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.51 - 0.75</t>
+          <t>0.26 - 0.50</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.5880268389141909</v>
+        <v>0.351316577586342</v>
       </c>
       <c r="G17" t="n">
         <v>0.3375</v>
@@ -1427,26 +1427,26 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>0.1309</v>
+        <v>0.0885</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0346</v>
+        <v>0.0198</v>
       </c>
       <c r="L17" t="n">
-        <v>0.186</v>
+        <v>0.1408</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.6842</v>
+        <v>0.0352</v>
       </c>
       <c r="N17" t="n">
-        <v>0.5592</v>
+        <v>0.6719000000000001</v>
       </c>
       <c r="O17" t="n">
-        <v>0.404</v>
+        <v>0.5958</v>
       </c>
     </row>
     <row r="18">
@@ -1465,16 +1465,16 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>difficult</t>
+          <t>easy</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.51 - 0.75</t>
+          <t>0.01 - 0.25</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.5880268389141909</v>
+        <v>0.189692755706703</v>
       </c>
       <c r="G18" t="n">
         <v>0.25</v>
@@ -1486,26 +1486,26 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>0.1309</v>
+        <v>0.0885</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0346</v>
+        <v>0.0198</v>
       </c>
       <c r="L18" t="n">
-        <v>0.186</v>
+        <v>0.1408</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.6842</v>
+        <v>0.0352</v>
       </c>
       <c r="N18" t="n">
-        <v>0.5592</v>
+        <v>0.6719000000000001</v>
       </c>
       <c r="O18" t="n">
-        <v>0.404</v>
+        <v>0.5958</v>
       </c>
     </row>
     <row r="19">
@@ -1533,7 +1533,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.5880268389141909</v>
+        <v>0.5880268389141911</v>
       </c>
       <c r="G19" t="n">
         <v>0.517857157</v>
@@ -1549,22 +1549,22 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>0.1309</v>
+        <v>0.0885</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0346</v>
+        <v>0.0198</v>
       </c>
       <c r="L19" t="n">
-        <v>0.186</v>
+        <v>0.1408</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.6842</v>
+        <v>0.0352</v>
       </c>
       <c r="N19" t="n">
-        <v>0.5592</v>
+        <v>0.6719000000000001</v>
       </c>
       <c r="O19" t="n">
-        <v>0.404</v>
+        <v>0.5958</v>
       </c>
     </row>
     <row r="20">
@@ -1608,22 +1608,22 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>0.1309</v>
+        <v>0.0885</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0346</v>
+        <v>0.0198</v>
       </c>
       <c r="L20" t="n">
-        <v>0.186</v>
+        <v>0.1408</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.6842</v>
+        <v>0.0352</v>
       </c>
       <c r="N20" t="n">
-        <v>0.5592</v>
+        <v>0.6719000000000001</v>
       </c>
       <c r="O20" t="n">
-        <v>0.404</v>
+        <v>0.5958</v>
       </c>
     </row>
     <row r="21">
@@ -1667,22 +1667,22 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>0.1309</v>
+        <v>0.0885</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0346</v>
+        <v>0.0198</v>
       </c>
       <c r="L21" t="n">
-        <v>0.186</v>
+        <v>0.1408</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.6842</v>
+        <v>0.0352</v>
       </c>
       <c r="N21" t="n">
-        <v>0.5592</v>
+        <v>0.6719000000000001</v>
       </c>
       <c r="O21" t="n">
-        <v>0.404</v>
+        <v>0.5958</v>
       </c>
     </row>
     <row r="22">
@@ -1710,7 +1710,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.5880268389141909</v>
+        <v>0.5880268389141911</v>
       </c>
       <c r="G22" t="n">
         <v>0.5625</v>
@@ -1726,22 +1726,22 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>0.1309</v>
+        <v>0.0885</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0346</v>
+        <v>0.0198</v>
       </c>
       <c r="L22" t="n">
-        <v>0.186</v>
+        <v>0.1408</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.6842</v>
+        <v>0.0352</v>
       </c>
       <c r="N22" t="n">
-        <v>0.5592</v>
+        <v>0.6719000000000001</v>
       </c>
       <c r="O22" t="n">
-        <v>0.404</v>
+        <v>0.5958</v>
       </c>
     </row>
     <row r="23">
@@ -1769,7 +1769,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.5880268389141909</v>
+        <v>0.5880268389141911</v>
       </c>
       <c r="G23" t="n">
         <v>0.4375</v>
@@ -1785,22 +1785,22 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>0.1309</v>
+        <v>0.0885</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0346</v>
+        <v>0.0198</v>
       </c>
       <c r="L23" t="n">
-        <v>0.186</v>
+        <v>0.1408</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.6842</v>
+        <v>0.0352</v>
       </c>
       <c r="N23" t="n">
-        <v>0.5592</v>
+        <v>0.6719000000000001</v>
       </c>
       <c r="O23" t="n">
-        <v>0.404</v>
+        <v>0.5958</v>
       </c>
     </row>
     <row r="24">
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.5880268389141909</v>
+        <v>0.5880268389141911</v>
       </c>
       <c r="G24" t="n">
         <v>0.416666549</v>
@@ -1844,22 +1844,22 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>0.1309</v>
+        <v>0.0885</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0346</v>
+        <v>0.0198</v>
       </c>
       <c r="L24" t="n">
-        <v>0.186</v>
+        <v>0.1408</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.6842</v>
+        <v>0.0352</v>
       </c>
       <c r="N24" t="n">
-        <v>0.5592</v>
+        <v>0.6719000000000001</v>
       </c>
       <c r="O24" t="n">
-        <v>0.404</v>
+        <v>0.5958</v>
       </c>
     </row>
     <row r="25">
@@ -1903,22 +1903,22 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>0.1309</v>
+        <v>0.0885</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0346</v>
+        <v>0.0198</v>
       </c>
       <c r="L25" t="n">
-        <v>0.186</v>
+        <v>0.1408</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.6842</v>
+        <v>0.0352</v>
       </c>
       <c r="N25" t="n">
-        <v>0.5592</v>
+        <v>0.6719000000000001</v>
       </c>
       <c r="O25" t="n">
-        <v>0.404</v>
+        <v>0.5958</v>
       </c>
     </row>
     <row r="26">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.5880268389141909</v>
+        <v>0.5880268389141911</v>
       </c>
       <c r="G26" t="n">
         <v>0.46875</v>
@@ -1962,22 +1962,22 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>0.1309</v>
+        <v>0.0885</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0346</v>
+        <v>0.0198</v>
       </c>
       <c r="L26" t="n">
-        <v>0.186</v>
+        <v>0.1408</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.6842</v>
+        <v>0.0352</v>
       </c>
       <c r="N26" t="n">
-        <v>0.5592</v>
+        <v>0.6719000000000001</v>
       </c>
       <c r="O26" t="n">
-        <v>0.404</v>
+        <v>0.5958</v>
       </c>
     </row>
     <row r="27">
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>0.1309</v>
+        <v>0.0885</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0346</v>
+        <v>0.0198</v>
       </c>
       <c r="L27" t="n">
-        <v>0.186</v>
+        <v>0.1408</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.6842</v>
+        <v>0.0352</v>
       </c>
       <c r="N27" t="n">
-        <v>0.5592</v>
+        <v>0.6719000000000001</v>
       </c>
       <c r="O27" t="n">
-        <v>0.404</v>
+        <v>0.5958</v>
       </c>
     </row>
     <row r="28">
@@ -2055,16 +2055,16 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>very easy</t>
+          <t>easy</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.01 - 0.25</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>0.189692755706703</v>
       </c>
       <c r="G28" t="n">
         <v>0.428571265</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>0.1309</v>
+        <v>0.0885</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0346</v>
+        <v>0.0198</v>
       </c>
       <c r="L28" t="n">
-        <v>0.186</v>
+        <v>0.1408</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.6842</v>
+        <v>0.0352</v>
       </c>
       <c r="N28" t="n">
-        <v>0.5592</v>
+        <v>0.6719000000000001</v>
       </c>
       <c r="O28" t="n">
-        <v>0.404</v>
+        <v>0.5958</v>
       </c>
     </row>
     <row r="29">
@@ -2114,16 +2114,16 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>difficult</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.51 - 0.75</t>
+          <t>0.26 - 0.50</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.5880268389141909</v>
+        <v>0.351316577586342</v>
       </c>
       <c r="G29" t="n">
         <v>0.125</v>
@@ -2139,22 +2139,22 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>0.1309</v>
+        <v>0.0885</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0346</v>
+        <v>0.0198</v>
       </c>
       <c r="L29" t="n">
-        <v>0.186</v>
+        <v>0.1408</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.6842</v>
+        <v>0.0352</v>
       </c>
       <c r="N29" t="n">
-        <v>0.5592</v>
+        <v>0.6719000000000001</v>
       </c>
       <c r="O29" t="n">
-        <v>0.404</v>
+        <v>0.5958</v>
       </c>
     </row>
     <row r="30">
@@ -2198,22 +2198,22 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>0.1309</v>
+        <v>0.0885</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0346</v>
+        <v>0.0198</v>
       </c>
       <c r="L30" t="n">
-        <v>0.186</v>
+        <v>0.1408</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.6842</v>
+        <v>0.0352</v>
       </c>
       <c r="N30" t="n">
-        <v>0.5592</v>
+        <v>0.6719000000000001</v>
       </c>
       <c r="O30" t="n">
-        <v>0.404</v>
+        <v>0.5958</v>
       </c>
     </row>
     <row r="31">
@@ -2232,16 +2232,16 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>very easy</t>
+          <t>easy</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.01 - 0.25</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.189692755706703</v>
       </c>
       <c r="G31" t="n">
         <v>0.28125</v>
@@ -2257,22 +2257,22 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>0.1309</v>
+        <v>0.0885</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0346</v>
+        <v>0.0198</v>
       </c>
       <c r="L31" t="n">
-        <v>0.186</v>
+        <v>0.1408</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.6842</v>
+        <v>0.0352</v>
       </c>
       <c r="N31" t="n">
-        <v>0.5592</v>
+        <v>0.6719000000000001</v>
       </c>
       <c r="O31" t="n">
-        <v>0.404</v>
+        <v>0.5958</v>
       </c>
     </row>
     <row r="32">
@@ -2316,22 +2316,22 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>0.1309</v>
+        <v>0.0885</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0346</v>
+        <v>0.0198</v>
       </c>
       <c r="L32" t="n">
-        <v>0.186</v>
+        <v>0.1408</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.6842</v>
+        <v>0.0352</v>
       </c>
       <c r="N32" t="n">
-        <v>0.5592</v>
+        <v>0.6719000000000001</v>
       </c>
       <c r="O32" t="n">
-        <v>0.404</v>
+        <v>0.5958</v>
       </c>
     </row>
   </sheetData>

--- a/resultados/resultadoPrueba.xlsx
+++ b/resultados/resultadoPrueba.xlsx
@@ -546,22 +546,22 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>0.0885</v>
+        <v>0.1145</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0198</v>
+        <v>0.0273</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1408</v>
+        <v>0.1651</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0352</v>
+        <v>-0.327</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6719000000000001</v>
+        <v>0.5793</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5958</v>
+        <v>0.4455</v>
       </c>
     </row>
     <row r="3">
@@ -605,22 +605,22 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>0.0885</v>
+        <v>0.1145</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0198</v>
+        <v>0.0273</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1408</v>
+        <v>0.1651</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0352</v>
+        <v>-0.327</v>
       </c>
       <c r="N3" t="n">
-        <v>0.6719000000000001</v>
+        <v>0.5793</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5958</v>
+        <v>0.4455</v>
       </c>
     </row>
     <row r="4">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>0.0885</v>
+        <v>0.1145</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0198</v>
+        <v>0.0273</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1408</v>
+        <v>0.1651</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0352</v>
+        <v>-0.327</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6719000000000001</v>
+        <v>0.5793</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5958</v>
+        <v>0.4455</v>
       </c>
     </row>
     <row r="5">
@@ -723,22 +723,22 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>0.0885</v>
+        <v>0.1145</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0198</v>
+        <v>0.0273</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1408</v>
+        <v>0.1651</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0352</v>
+        <v>-0.327</v>
       </c>
       <c r="N5" t="n">
-        <v>0.6719000000000001</v>
+        <v>0.5793</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5958</v>
+        <v>0.4455</v>
       </c>
     </row>
     <row r="6">
@@ -782,22 +782,22 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>0.0885</v>
+        <v>0.1145</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0198</v>
+        <v>0.0273</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1408</v>
+        <v>0.1651</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0352</v>
+        <v>-0.327</v>
       </c>
       <c r="N6" t="n">
-        <v>0.6719000000000001</v>
+        <v>0.5793</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5958</v>
+        <v>0.4455</v>
       </c>
     </row>
     <row r="7">
@@ -841,22 +841,22 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>0.0885</v>
+        <v>0.1145</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0198</v>
+        <v>0.0273</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1408</v>
+        <v>0.1651</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0352</v>
+        <v>-0.327</v>
       </c>
       <c r="N7" t="n">
-        <v>0.6719000000000001</v>
+        <v>0.5793</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5958</v>
+        <v>0.4455</v>
       </c>
     </row>
     <row r="8">
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>0.0885</v>
+        <v>0.1145</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0198</v>
+        <v>0.0273</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1408</v>
+        <v>0.1651</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0352</v>
+        <v>-0.327</v>
       </c>
       <c r="N8" t="n">
-        <v>0.6719000000000001</v>
+        <v>0.5793</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5958</v>
+        <v>0.4455</v>
       </c>
     </row>
     <row r="9">
@@ -959,22 +959,22 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>0.0885</v>
+        <v>0.1145</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0198</v>
+        <v>0.0273</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1408</v>
+        <v>0.1651</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0352</v>
+        <v>-0.327</v>
       </c>
       <c r="N9" t="n">
-        <v>0.6719000000000001</v>
+        <v>0.5793</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5958</v>
+        <v>0.4455</v>
       </c>
     </row>
     <row r="10">
@@ -1018,22 +1018,22 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>0.0885</v>
+        <v>0.1145</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0198</v>
+        <v>0.0273</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1408</v>
+        <v>0.1651</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0352</v>
+        <v>-0.327</v>
       </c>
       <c r="N10" t="n">
-        <v>0.6719000000000001</v>
+        <v>0.5793</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5958</v>
+        <v>0.4455</v>
       </c>
     </row>
     <row r="11">
@@ -1077,22 +1077,22 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>0.0885</v>
+        <v>0.1145</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0198</v>
+        <v>0.0273</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1408</v>
+        <v>0.1651</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0352</v>
+        <v>-0.327</v>
       </c>
       <c r="N11" t="n">
-        <v>0.6719000000000001</v>
+        <v>0.5793</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5958</v>
+        <v>0.4455</v>
       </c>
     </row>
     <row r="12">
@@ -1136,22 +1136,22 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>0.0885</v>
+        <v>0.1145</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0198</v>
+        <v>0.0273</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1408</v>
+        <v>0.1651</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0352</v>
+        <v>-0.327</v>
       </c>
       <c r="N12" t="n">
-        <v>0.6719000000000001</v>
+        <v>0.5793</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5958</v>
+        <v>0.4455</v>
       </c>
     </row>
     <row r="13">
@@ -1195,22 +1195,22 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>0.0885</v>
+        <v>0.1145</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0198</v>
+        <v>0.0273</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1408</v>
+        <v>0.1651</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0352</v>
+        <v>-0.327</v>
       </c>
       <c r="N13" t="n">
-        <v>0.6719000000000001</v>
+        <v>0.5793</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5958</v>
+        <v>0.4455</v>
       </c>
     </row>
     <row r="14">
@@ -1229,16 +1229,16 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>very difficult</t>
+          <t>very easy</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.76 - 1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.8111511532380949</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0.234375</v>
@@ -1254,22 +1254,22 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>0.0885</v>
+        <v>0.1145</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0198</v>
+        <v>0.0273</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1408</v>
+        <v>0.1651</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0352</v>
+        <v>-0.327</v>
       </c>
       <c r="N14" t="n">
-        <v>0.6719000000000001</v>
+        <v>0.5793</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5958</v>
+        <v>0.4455</v>
       </c>
     </row>
     <row r="15">
@@ -1313,22 +1313,22 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>0.0885</v>
+        <v>0.1145</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0198</v>
+        <v>0.0273</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1408</v>
+        <v>0.1651</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0352</v>
+        <v>-0.327</v>
       </c>
       <c r="N15" t="n">
-        <v>0.6719000000000001</v>
+        <v>0.5793</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5958</v>
+        <v>0.4455</v>
       </c>
     </row>
     <row r="16">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>0.0885</v>
+        <v>0.1145</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0198</v>
+        <v>0.0273</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1408</v>
+        <v>0.1651</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0352</v>
+        <v>-0.327</v>
       </c>
       <c r="N16" t="n">
-        <v>0.6719000000000001</v>
+        <v>0.5793</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5958</v>
+        <v>0.4455</v>
       </c>
     </row>
     <row r="17">
@@ -1406,16 +1406,16 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>difficult</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.26 - 0.50</t>
+          <t>0.51 - 0.75</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.351316577586342</v>
+        <v>0.5880268389141911</v>
       </c>
       <c r="G17" t="n">
         <v>0.3375</v>
@@ -1427,26 +1427,26 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>No</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>0.0885</v>
+        <v>0.1145</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0198</v>
+        <v>0.0273</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1408</v>
+        <v>0.1651</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0352</v>
+        <v>-0.327</v>
       </c>
       <c r="N17" t="n">
-        <v>0.6719000000000001</v>
+        <v>0.5793</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5958</v>
+        <v>0.4455</v>
       </c>
     </row>
     <row r="18">
@@ -1490,22 +1490,22 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>0.0885</v>
+        <v>0.1145</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0198</v>
+        <v>0.0273</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1408</v>
+        <v>0.1651</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0352</v>
+        <v>-0.327</v>
       </c>
       <c r="N18" t="n">
-        <v>0.6719000000000001</v>
+        <v>0.5793</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5958</v>
+        <v>0.4455</v>
       </c>
     </row>
     <row r="19">
@@ -1549,22 +1549,22 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>0.0885</v>
+        <v>0.1145</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0198</v>
+        <v>0.0273</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1408</v>
+        <v>0.1651</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0352</v>
+        <v>-0.327</v>
       </c>
       <c r="N19" t="n">
-        <v>0.6719000000000001</v>
+        <v>0.5793</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5958</v>
+        <v>0.4455</v>
       </c>
     </row>
     <row r="20">
@@ -1608,22 +1608,22 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>0.0885</v>
+        <v>0.1145</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0198</v>
+        <v>0.0273</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1408</v>
+        <v>0.1651</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0352</v>
+        <v>-0.327</v>
       </c>
       <c r="N20" t="n">
-        <v>0.6719000000000001</v>
+        <v>0.5793</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5958</v>
+        <v>0.4455</v>
       </c>
     </row>
     <row r="21">
@@ -1667,22 +1667,22 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>0.0885</v>
+        <v>0.1145</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0198</v>
+        <v>0.0273</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1408</v>
+        <v>0.1651</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0352</v>
+        <v>-0.327</v>
       </c>
       <c r="N21" t="n">
-        <v>0.6719000000000001</v>
+        <v>0.5793</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5958</v>
+        <v>0.4455</v>
       </c>
     </row>
     <row r="22">
@@ -1701,16 +1701,16 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>difficult</t>
+          <t>very easy</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.51 - 0.75</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.5880268389141911</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0.5625</v>
@@ -1722,26 +1722,26 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>No</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>0.0885</v>
+        <v>0.1145</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0198</v>
+        <v>0.0273</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1408</v>
+        <v>0.1651</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0352</v>
+        <v>-0.327</v>
       </c>
       <c r="N22" t="n">
-        <v>0.6719000000000001</v>
+        <v>0.5793</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5958</v>
+        <v>0.4455</v>
       </c>
     </row>
     <row r="23">
@@ -1785,22 +1785,22 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>0.0885</v>
+        <v>0.1145</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0198</v>
+        <v>0.0273</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1408</v>
+        <v>0.1651</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0352</v>
+        <v>-0.327</v>
       </c>
       <c r="N23" t="n">
-        <v>0.6719000000000001</v>
+        <v>0.5793</v>
       </c>
       <c r="O23" t="n">
-        <v>0.5958</v>
+        <v>0.4455</v>
       </c>
     </row>
     <row r="24">
@@ -1819,16 +1819,16 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>difficult</t>
+          <t>easy</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.51 - 0.75</t>
+          <t>0.01 - 0.25</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.5880268389141911</v>
+        <v>0.189692755706703</v>
       </c>
       <c r="G24" t="n">
         <v>0.416666549</v>
@@ -1844,22 +1844,22 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>0.0885</v>
+        <v>0.1145</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0198</v>
+        <v>0.0273</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1408</v>
+        <v>0.1651</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0352</v>
+        <v>-0.327</v>
       </c>
       <c r="N24" t="n">
-        <v>0.6719000000000001</v>
+        <v>0.5793</v>
       </c>
       <c r="O24" t="n">
-        <v>0.5958</v>
+        <v>0.4455</v>
       </c>
     </row>
     <row r="25">
@@ -1903,22 +1903,22 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>0.0885</v>
+        <v>0.1145</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0198</v>
+        <v>0.0273</v>
       </c>
       <c r="L25" t="n">
-        <v>0.1408</v>
+        <v>0.1651</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0352</v>
+        <v>-0.327</v>
       </c>
       <c r="N25" t="n">
-        <v>0.6719000000000001</v>
+        <v>0.5793</v>
       </c>
       <c r="O25" t="n">
-        <v>0.5958</v>
+        <v>0.4455</v>
       </c>
     </row>
     <row r="26">
@@ -1962,22 +1962,22 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>0.0885</v>
+        <v>0.1145</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0198</v>
+        <v>0.0273</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1408</v>
+        <v>0.1651</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0352</v>
+        <v>-0.327</v>
       </c>
       <c r="N26" t="n">
-        <v>0.6719000000000001</v>
+        <v>0.5793</v>
       </c>
       <c r="O26" t="n">
-        <v>0.5958</v>
+        <v>0.4455</v>
       </c>
     </row>
     <row r="27">
@@ -1996,16 +1996,16 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>difficult</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.01 - 0.25</t>
+          <t>0.51 - 0.75</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.189692755706703</v>
+        <v>0.5880268389141911</v>
       </c>
       <c r="G27" t="n">
         <v>0.319444459</v>
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>0.0885</v>
+        <v>0.1145</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0198</v>
+        <v>0.0273</v>
       </c>
       <c r="L27" t="n">
-        <v>0.1408</v>
+        <v>0.1651</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0352</v>
+        <v>-0.327</v>
       </c>
       <c r="N27" t="n">
-        <v>0.6719000000000001</v>
+        <v>0.5793</v>
       </c>
       <c r="O27" t="n">
-        <v>0.5958</v>
+        <v>0.4455</v>
       </c>
     </row>
     <row r="28">
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>0.0885</v>
+        <v>0.1145</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0198</v>
+        <v>0.0273</v>
       </c>
       <c r="L28" t="n">
-        <v>0.1408</v>
+        <v>0.1651</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0352</v>
+        <v>-0.327</v>
       </c>
       <c r="N28" t="n">
-        <v>0.6719000000000001</v>
+        <v>0.5793</v>
       </c>
       <c r="O28" t="n">
-        <v>0.5958</v>
+        <v>0.4455</v>
       </c>
     </row>
     <row r="29">
@@ -2114,16 +2114,16 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>easy</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.26 - 0.50</t>
+          <t>0.01 - 0.25</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.351316577586342</v>
+        <v>0.189692755706703</v>
       </c>
       <c r="G29" t="n">
         <v>0.125</v>
@@ -2135,26 +2135,26 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>0.0885</v>
+        <v>0.1145</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0198</v>
+        <v>0.0273</v>
       </c>
       <c r="L29" t="n">
-        <v>0.1408</v>
+        <v>0.1651</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0352</v>
+        <v>-0.327</v>
       </c>
       <c r="N29" t="n">
-        <v>0.6719000000000001</v>
+        <v>0.5793</v>
       </c>
       <c r="O29" t="n">
-        <v>0.5958</v>
+        <v>0.4455</v>
       </c>
     </row>
     <row r="30">
@@ -2198,22 +2198,22 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>0.0885</v>
+        <v>0.1145</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0198</v>
+        <v>0.0273</v>
       </c>
       <c r="L30" t="n">
-        <v>0.1408</v>
+        <v>0.1651</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0352</v>
+        <v>-0.327</v>
       </c>
       <c r="N30" t="n">
-        <v>0.6719000000000001</v>
+        <v>0.5793</v>
       </c>
       <c r="O30" t="n">
-        <v>0.5958</v>
+        <v>0.4455</v>
       </c>
     </row>
     <row r="31">
@@ -2232,16 +2232,16 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>very easy</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.01 - 0.25</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.189692755706703</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0.28125</v>
@@ -2257,22 +2257,22 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>0.0885</v>
+        <v>0.1145</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0198</v>
+        <v>0.0273</v>
       </c>
       <c r="L31" t="n">
-        <v>0.1408</v>
+        <v>0.1651</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0352</v>
+        <v>-0.327</v>
       </c>
       <c r="N31" t="n">
-        <v>0.6719000000000001</v>
+        <v>0.5793</v>
       </c>
       <c r="O31" t="n">
-        <v>0.5958</v>
+        <v>0.4455</v>
       </c>
     </row>
     <row r="32">
@@ -2291,16 +2291,16 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>very easy</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.01 - 0.25</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.189692755706703</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0.171052596</v>
@@ -2312,26 +2312,26 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>No</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>0.0885</v>
+        <v>0.1145</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0198</v>
+        <v>0.0273</v>
       </c>
       <c r="L32" t="n">
-        <v>0.1408</v>
+        <v>0.1651</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0352</v>
+        <v>-0.327</v>
       </c>
       <c r="N32" t="n">
-        <v>0.6719000000000001</v>
+        <v>0.5793</v>
       </c>
       <c r="O32" t="n">
-        <v>0.5958</v>
+        <v>0.4455</v>
       </c>
     </row>
   </sheetData>
